--- a/Data/Cities/Chicago/cases_chicago.xlsx
+++ b/Data/Cities/Chicago/cases_chicago.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nodar/Library/Mobile Documents/com~apple~CloudDocs/Research/MPOX Modelling/mpox.multi-city/Data/Cities/Chicago/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D598EA42-5D50-474C-9EE0-D13CEC2B72F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEFC88DC-47F2-D94B-A82D-DCFCB912A7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21660" yWindow="8360" windowWidth="27640" windowHeight="16940" xr2:uid="{6A05E00B-3650-C447-A779-7894F8FB92C1}"/>
+    <workbookView xWindow="2600" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{E3CCEFEE-4BAF-AC4F-9A18-2C291B7ABF9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,22 +41,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>weekly_cases</t>
+    <t>WEEK</t>
   </si>
   <si>
-    <t>diagnosis_date</t>
+    <t>CASES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -77,9 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -108,39 +130,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -192,7 +214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -244,7 +266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -303,13 +325,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -318,6 +333,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -382,614 +404,959 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D211C7-EA89-A94E-B606-F6BB5E6E10D7}">
-  <dimension ref="A1:B73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DEB7F1-1C31-314A-92B4-076057732FC6}">
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B73" sqref="B1:B73"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A5" si="0">A3-7</f>
+        <v>44653</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f t="shared" si="0"/>
+        <v>44660</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>44667</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>44674</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f>A7-7</f>
+        <v>44681</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44688</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44695</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44702</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44709</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44716</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44723</v>
       </c>
-      <c r="B7">
+      <c r="B12">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44730</v>
       </c>
-      <c r="B8">
+      <c r="B13">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44737</v>
       </c>
-      <c r="B9">
+      <c r="B14">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44744</v>
       </c>
-      <c r="B10">
+      <c r="B15">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44751</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44758</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44765</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>44772</v>
       </c>
-      <c r="B14">
+      <c r="B19">
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>44779</v>
       </c>
-      <c r="B15">
+      <c r="B20">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>44786</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>44793</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>44800</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>44807</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>44814</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>44821</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>44828</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>44835</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>44842</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>44849</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>44856</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>44863</v>
-      </c>
-      <c r="B27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>44870</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>44877</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>44884</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44863</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44870</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44877</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44884</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>44891</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>44898</v>
       </c>
-      <c r="B32">
+      <c r="B37">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>44905</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>44912</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>44919</v>
       </c>
-      <c r="B35">
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>44926</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>44933</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>44940</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>44947</v>
       </c>
-      <c r="B39">
+      <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>44954</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>44961</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>44968</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>44975</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>44982</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>44989</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>44996</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>45003</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>45010</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>45017</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>45024</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>45031</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>45038</v>
       </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>45045</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>45052</v>
       </c>
-      <c r="B54">
+      <c r="B59">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>45059</v>
       </c>
-      <c r="B55">
+      <c r="B60">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>45066</v>
       </c>
-      <c r="B56">
+      <c r="B61">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>45073</v>
       </c>
-      <c r="B57">
+      <c r="B62">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>45080</v>
       </c>
-      <c r="B58">
+      <c r="B63">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>45087</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>45094</v>
       </c>
-      <c r="B60">
+      <c r="B65">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>45101</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>45108</v>
       </c>
-      <c r="B62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>45115</v>
       </c>
-      <c r="B63">
+      <c r="B68">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>45122</v>
       </c>
-      <c r="B64">
+      <c r="B69">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>45129</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>45136</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>45143</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>45150</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>45157</v>
-      </c>
-      <c r="B69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>45164</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>45171</v>
+      <c r="A71" s="2">
+        <v>45136</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <v>45178</v>
+      <c r="A72" s="2">
+        <v>45143</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <v>45185</v>
+      <c r="A73" s="2">
+        <v>45150</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45416</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45423</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{62DEB7F1-1C31-314A-92B4-076057732FC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B107">
+      <sortCondition ref="A1:A107"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>